--- a/article/test.xlsx
+++ b/article/test.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\test-speed\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\test-speed\article\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29430" windowHeight="15420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29430" windowHeight="15420" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Результаты" sheetId="1" r:id="rId1"/>
-    <sheet name="Легенда" sheetId="2" r:id="rId2"/>
+    <sheet name="Результаты (новые без оптим.)" sheetId="4" r:id="rId2"/>
+    <sheet name="Результаты (новые с оптим.)" sheetId="3" r:id="rId3"/>
+    <sheet name="IO" sheetId="5" r:id="rId4"/>
+    <sheet name="Легенда" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Java</t>
   </si>
@@ -55,6 +58,18 @@
   </si>
   <si>
     <t>Интерпретатор</t>
+  </si>
+  <si>
+    <t>c Print</t>
+  </si>
+  <si>
+    <t>без Print</t>
+  </si>
+  <si>
+    <t>Без лишних Print</t>
+  </si>
+  <si>
+    <t>С лишними Print</t>
   </si>
 </sst>
 </file>
@@ -101,7 +116,7 @@
       <scheme val="major"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -126,6 +141,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF79ADDD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBFD2DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -139,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -179,14 +206,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -194,6 +231,15 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFBFD2DB"/>
+      <color rgb="FFAACBDA"/>
+      <color rgb="FF79ADDD"/>
+      <color rgb="FFFFFF99"/>
+      <color rgb="FF99FF99"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -873,6 +919,1775 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3438988088826588E-2"/>
+          <c:y val="0.10632503122512912"/>
+          <c:w val="0.93312202382234677"/>
+          <c:h val="0.70251072538054893"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-37A7-4E83-9A98-FCCE0C6418EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-37A7-4E83-9A98-FCCE0C6418EF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Результаты (новые без оптим.)'!$D$3,'Результаты (новые без оптим.)'!$F$3,'Результаты (новые без оптим.)'!$H$3,'Результаты (новые без оптим.)'!$J$3,'Результаты (новые без оптим.)'!$L$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lazarus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Delphi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Результаты (новые без оптим.)'!$D$2,'Результаты (новые без оптим.)'!$F$2,'Результаты (новые без оптим.)'!$H$2,'Результаты (новые без оптим.)'!$J$2,'Результаты (новые без оптим.)'!$L$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6861</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>171789</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-37A7-4E83-9A98-FCCE0C6418EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:axId val="508475864"/>
+        <c:axId val="508476192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="508475864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508476192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="508476192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="508475864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3216192953506841E-2"/>
+          <c:y val="0.11188078089701738"/>
+          <c:w val="0.93356761409298628"/>
+          <c:h val="0.68696616432269453"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-398E-440F-AD55-F8FBB7DCB98B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-398E-440F-AD55-F8FBB7DCB98B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Результаты (новые без оптим.)'!$D$3,'Результаты (новые без оптим.)'!$F$3,'Результаты (новые без оптим.)'!$H$3,'Результаты (новые без оптим.)'!$J$3,'Результаты (новые без оптим.)'!$L$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lazarus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Delphi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Результаты (новые без оптим.)'!$D$1,'Результаты (новые без оптим.)'!$F$1,'Результаты (новые без оптим.)'!$H$1,'Результаты (новые без оптим.)'!$J$1,'Результаты (новые без оптим.)'!$L$1)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>39350</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3734</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>150131</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-398E-440F-AD55-F8FBB7DCB98B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:axId val="510464536"/>
+        <c:axId val="510465848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="510464536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510465848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="510465848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="510464536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3438988088826588E-2"/>
+          <c:y val="0.10632503122512912"/>
+          <c:w val="0.93312202382234677"/>
+          <c:h val="0.70251072538054893"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EEBB-4CC3-8EF6-FBE21BBD046C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-EEBB-4CC3-8EF6-FBE21BBD046C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Результаты (новые с оптим.)'!$D$3,'Результаты (новые с оптим.)'!$F$3,'Результаты (новые с оптим.)'!$H$3,'Результаты (новые с оптим.)'!$J$3,'Результаты (новые с оптим.)'!$L$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lazarus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Delphi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Результаты (новые с оптим.)'!$D$2,'Результаты (новые с оптим.)'!$F$2,'Результаты (новые с оптим.)'!$H$2,'Результаты (новые с оптим.)'!$J$2,'Результаты (новые с оптим.)'!$L$2)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3853</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3859</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3985</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>172247</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EEBB-4CC3-8EF6-FBE21BBD046C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:axId val="508475864"/>
+        <c:axId val="508476192"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="508475864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="508476192"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="508476192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="508475864"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.3216192953506841E-2"/>
+          <c:y val="0.11188078089701738"/>
+          <c:w val="0.93356761409298628"/>
+          <c:h val="0.68696616432269453"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-C15A-4F25-B2AA-E389DA789CAC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-C15A-4F25-B2AA-E389DA789CAC}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>('Результаты (новые с оптим.)'!$D$3,'Результаты (новые с оптим.)'!$F$3,'Результаты (новые с оптим.)'!$H$3,'Результаты (новые с оптим.)'!$J$3,'Результаты (новые с оптим.)'!$L$3)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lazarus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Delphi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Результаты (новые с оптим.)'!$D$1,'Результаты (новые с оптим.)'!$F$1,'Результаты (новые с оптим.)'!$H$1,'Результаты (новые с оптим.)'!$J$1,'Результаты (новые с оптим.)'!$L$1)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-C15A-4F25-B2AA-E389DA789CAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="30"/>
+        <c:axId val="510464536"/>
+        <c:axId val="510465848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="510464536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="510465848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="510465848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="510464536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:noFill/>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IO!$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c Print</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="79ADDD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>IO!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lazarus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Delphi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IO!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1422</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3360</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>151084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B65-4079-9827-B769A5BBBDFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>IO!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>без Print</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="AACBDA"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="BFD2DB"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8B65-4079-9827-B769A5BBBDFA}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>IO!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Rust</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Lazarus</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Delphi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Java</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Python</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>IO!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1087</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2218</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1296</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2610</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>149334</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B65-4079-9827-B769A5BBBDFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="51"/>
+        <c:axId val="202306616"/>
+        <c:axId val="202306944"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="202306616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="1" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="202306944"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="202306944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202306616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -953,6 +2768,206 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1457,6 +3472,2521 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2020,6 +6550,179 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10767</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714746</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190871</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>4646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>10767</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>714746</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>59596</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>190871</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>95625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>23811</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>147206</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2293,8 +6996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,23 +7024,23 @@
         <v>8</v>
       </c>
       <c r="C1" s="5"/>
-      <c r="D1" s="18">
+      <c r="D1" s="17">
         <v>40402</v>
       </c>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18">
+      <c r="E1" s="17"/>
+      <c r="F1" s="17">
         <v>3414</v>
       </c>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18">
+      <c r="G1" s="17"/>
+      <c r="H1" s="17">
         <v>2018</v>
       </c>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18">
+      <c r="I1" s="17"/>
+      <c r="J1" s="17">
         <v>3986</v>
       </c>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18">
+      <c r="K1" s="17"/>
+      <c r="L1" s="17">
         <v>156130</v>
       </c>
     </row>
@@ -2346,45 +7049,45 @@
         <v>7</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="18">
+      <c r="D2" s="17">
         <v>7022</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18">
+      <c r="E2" s="17"/>
+      <c r="F2" s="17">
         <v>4852</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18">
+      <c r="G2" s="17"/>
+      <c r="H2" s="17">
         <v>3952</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18">
+      <c r="I2" s="17"/>
+      <c r="J2" s="17">
         <v>4155</v>
       </c>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17">
         <v>176320</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19" t="s">
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19" t="s">
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2454,10 +7157,429 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:H16"/>
+  <dimension ref="B1:L16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="0.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="0.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="17">
+        <v>39350</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17">
+        <v>3328</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17">
+        <v>1968</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17">
+        <v>3734</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17">
+        <v>150131</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="17">
+        <v>6861</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17">
+        <v>4765</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17">
+        <v>3859</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17">
+        <v>4001</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17">
+        <v>171789</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:L16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="0.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="0.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="0.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="0.85546875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="14" max="14" width="3.7109375" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="17">
+        <v>1422</v>
+      </c>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17">
+        <v>3360</v>
+      </c>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17">
+        <v>1968</v>
+      </c>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17">
+        <v>3719</v>
+      </c>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17">
+        <v>151084</v>
+      </c>
+    </row>
+    <row r="2" spans="2:12" s="6" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="17">
+        <v>3853</v>
+      </c>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17">
+        <v>4703</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17">
+        <v>3859</v>
+      </c>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17">
+        <v>3985</v>
+      </c>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17">
+        <v>172247</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="D3" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="2:12" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="2:12" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="2:12" s="11" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:G4"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="7" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1422</v>
+      </c>
+      <c r="D2">
+        <v>3360</v>
+      </c>
+      <c r="E2">
+        <v>1968</v>
+      </c>
+      <c r="F2">
+        <v>3719</v>
+      </c>
+      <c r="G2">
+        <v>151084</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>1087</v>
+      </c>
+      <c r="D3">
+        <v>2218</v>
+      </c>
+      <c r="E3">
+        <v>1296</v>
+      </c>
+      <c r="F3">
+        <v>2610</v>
+      </c>
+      <c r="G3">
+        <v>149334</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C4" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:K18"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2465,69 +7587,121 @@
     <col min="3" max="3" width="3.140625" customWidth="1"/>
     <col min="4" max="4" width="1.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="8" max="8" width="3" customWidth="1"/>
+    <col min="9" max="9" width="1.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E2" s="15"/>
     </row>
-    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:11" x14ac:dyDescent="0.25">
       <c r="E3" s="15"/>
     </row>
-    <row r="4" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E4" s="17" t="s">
+    <row r="4" spans="3:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" s="19" t="s">
         <v>5</v>
       </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="15"/>
     </row>
-    <row r="5" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="12"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="19"/>
       <c r="F5" s="4"/>
-      <c r="H5" s="4"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="15"/>
     </row>
-    <row r="6" spans="3:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="17"/>
+    <row r="6" spans="3:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E6" s="19"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="15"/>
     </row>
-    <row r="7" spans="3:8" ht="9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:11" ht="9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E7" s="16"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="15"/>
     </row>
-    <row r="8" spans="3:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E8" s="17" t="s">
+    <row r="8" spans="3:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E8" s="19" t="s">
         <v>6</v>
       </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="15"/>
     </row>
-    <row r="9" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="13"/>
-      <c r="E9" s="17"/>
+      <c r="E9" s="19"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="15"/>
     </row>
-    <row r="10" spans="3:8" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="17"/>
+    <row r="10" spans="3:11" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E10" s="19"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="15"/>
     </row>
-    <row r="11" spans="3:8" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E11" s="16"/>
+      <c r="J11" s="16"/>
     </row>
-    <row r="12" spans="3:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="17" t="s">
+    <row r="12" spans="3:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" s="19" t="s">
         <v>9</v>
       </c>
+      <c r="J12" s="19" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="13" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="14"/>
-      <c r="E13" s="17"/>
+      <c r="E13" s="19"/>
+      <c r="H13" s="21"/>
+      <c r="J13" s="19"/>
     </row>
-    <row r="14" spans="3:8" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="17"/>
+    <row r="14" spans="3:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
-    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E15" s="15"/>
+      <c r="J15" s="16"/>
     </row>
-    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:11" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E16" s="15"/>
+      <c r="J16" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="22"/>
+      <c r="J17" s="19"/>
+    </row>
+    <row r="18" spans="8:10" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J18" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="J16:J18"/>
     <mergeCell ref="E4:E6"/>
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="E12:E14"/>
+    <mergeCell ref="J4:J6"/>
+    <mergeCell ref="J8:J10"/>
+    <mergeCell ref="J12:J14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
